--- a/prestigedata11.8.xlsx
+++ b/prestigedata11.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coopermunhall/Desktop/entprestige3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DA4073-58C2-B344-B4D6-1D9FA1946D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80218A13-DAF1-534F-AF74-28B3F39EFDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="500" windowWidth="11800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="500" windowWidth="18160" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,34 +52,34 @@
     <t>weight</t>
   </si>
   <si>
-    <t>Harvard</t>
-  </si>
-  <si>
-    <t>Johns Hopkins</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>MUSC</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>UCSF</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Penn</t>
+    <t>MEEI (135)</t>
+  </si>
+  <si>
+    <t>JHU (49)</t>
+  </si>
+  <si>
+    <t>Michigan (40)</t>
+  </si>
+  <si>
+    <t>Vanderbilt (43)</t>
+  </si>
+  <si>
+    <t>MUSC (19)</t>
+  </si>
+  <si>
+    <t>Stanford (44)</t>
+  </si>
+  <si>
+    <t>UCSF (36)</t>
+  </si>
+  <si>
+    <t>Ohio State (25)</t>
+  </si>
+  <si>
+    <t>Iowa (18)</t>
+  </si>
+  <si>
+    <t>Penn (28)</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
